--- a/pag_IA/Reporte_Lestoma.xlsx
+++ b/pag_IA/Reporte_Lestoma.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -552,6 +552,201 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>5e12dff7-41e0-47d4-a255-f836709e320b</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Agua</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>L1</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>V1</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>5</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5</v>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>na</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>df376865-ce29-464c-bbbd-1553c53bab97</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Tierra</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>L2</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>V1</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>10</v>
+      </c>
+      <c r="F5" t="n">
+        <v>8</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>niguna</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>b80b0af2-998f-4eeb-8406-0bdb7c9790bb</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Tierra</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>L2</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>V2</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>5</v>
+      </c>
+      <c r="F6" t="n">
+        <v>5</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>na</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>e03ceb9e-23d8-4b13-84fd-1dcc47d11f75</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Agua</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>L2</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>V2</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>5</v>
+      </c>
+      <c r="F7" t="n">
+        <v>5</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>niguna</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>8b82f372-59c1-47d3-9990-d90ecb716646</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Agua</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>L2</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>V1</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>6</v>
+      </c>
+      <c r="F8" t="n">
+        <v>6</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>niguna</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/pag_IA/Reporte_Lestoma.xlsx
+++ b/pag_IA/Reporte_Lestoma.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,30 +445,40 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Planta</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Tipo de Lechuga</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Num H</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>AF</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>H</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Semana</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Nº Siembra</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Observaciones</t>
         </is>
@@ -477,7 +487,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>f97d8196-b86d-405b-9a87-af53659dcae5</t>
+          <t>f4346b44-4bc4-42bf-81af-ce4b3fbe2f5f</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -490,260 +500,32 @@
           <t>L1</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="inlineStr">
         <is>
           <t>V1</t>
         </is>
       </c>
-      <c r="E2" t="n">
-        <v>5</v>
-      </c>
       <c r="F2" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G2" t="n">
-        <v>5</v>
+        <v>100.89</v>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>na</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>7dab390d-6b19-434f-8deb-e798cdcffcde</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Tierra</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>L2</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>V2</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>5</v>
-      </c>
-      <c r="F3" t="n">
-        <v>5</v>
-      </c>
-      <c r="G3" t="n">
+        <v>20</v>
+      </c>
+      <c r="I2" t="n">
+        <v>8</v>
+      </c>
+      <c r="J2" t="n">
         <v>1</v>
       </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>na</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>5e12dff7-41e0-47d4-a255-f836709e320b</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Agua</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>L1</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>V1</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>5</v>
-      </c>
-      <c r="F4" t="n">
-        <v>5</v>
-      </c>
-      <c r="G4" t="n">
-        <v>5</v>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>na</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>df376865-ce29-464c-bbbd-1553c53bab97</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Tierra</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>L2</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>V1</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>10</v>
-      </c>
-      <c r="F5" t="n">
-        <v>8</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>niguna</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>b80b0af2-998f-4eeb-8406-0bdb7c9790bb</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Tierra</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>L2</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>V2</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>5</v>
-      </c>
-      <c r="F6" t="n">
-        <v>5</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>na</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>e03ceb9e-23d8-4b13-84fd-1dcc47d11f75</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Agua</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>L2</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>V2</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>5</v>
-      </c>
-      <c r="F7" t="n">
-        <v>5</v>
-      </c>
-      <c r="G7" t="n">
-        <v>2</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>niguna</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>8b82f372-59c1-47d3-9990-d90ecb716646</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Agua</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>L2</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>V1</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>6</v>
-      </c>
-      <c r="F8" t="n">
-        <v>6</v>
-      </c>
-      <c r="G8" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>niguna</t>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>NaN</t>
         </is>
       </c>
     </row>
